--- a/Docs/Lab2/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab2/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{725BD408-0CB2-4DA2-835F-FB0459D36C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA312272-63B9-41CA-99C8-5B6B305F837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="119">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -172,35 +172,10 @@
     <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
-  </si>
-  <si>
     <t>Observații</t>
   </si>
   <si>
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
   </si>
   <si>
     <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
@@ -508,7 +483,184 @@
     <t>Table number must be between 1 and 8. Amount must be between 0.0 and 1000.0.</t>
   </si>
   <si>
-    <t>1, 3</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>F01.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> addPayment(table, type, amount)</t>
+    </r>
+  </si>
+  <si>
+    <t>Amount must be between 0.0 and 1000.0.</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>table is unsigned int</t>
+  </si>
+  <si>
+    <t>table is not unsigned int</t>
+  </si>
+  <si>
+    <t>table ∈ [0,8]</t>
+  </si>
+  <si>
+    <t>amount ∈ [0, 1000]</t>
+  </si>
+  <si>
+    <t>paymentType ∈ {"cash", "card"}</t>
+  </si>
+  <si>
+    <t>paymentType ∉ {"cash", "card"}</t>
+  </si>
+  <si>
+    <t>01. table = 1</t>
+  </si>
+  <si>
+    <t>02. table = 8</t>
+  </si>
+  <si>
+    <t>03. table = 9</t>
+  </si>
+  <si>
+    <t>04. table = 0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F01. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>addPayment(table, type, amount)</t>
+    </r>
+  </si>
+  <si>
+    <t>05. table = 2</t>
+  </si>
+  <si>
+    <t>06. table = 7</t>
+  </si>
+  <si>
+    <t>07. amount = 0.0</t>
+  </si>
+  <si>
+    <t>08. amount = 1000.0</t>
+  </si>
+  <si>
+    <t>09. amount = -0.01</t>
+  </si>
+  <si>
+    <t>10. amount = 1000.01</t>
+  </si>
+  <si>
+    <t>11. amount = 0.01</t>
+  </si>
+  <si>
+    <t>12. 999.99</t>
+  </si>
+  <si>
+    <t>table is unsigned int, 
+1 &lt;= table &lt;= 8</t>
+  </si>
+  <si>
+    <t>TC2_ECP</t>
+  </si>
+  <si>
+    <t>TC4_ECP</t>
+  </si>
+  <si>
+    <t>TC1_BVA</t>
+  </si>
+  <si>
+    <t>TC2_BVA</t>
+  </si>
+  <si>
+    <t>F01. addPayment(table, type, amount)</t>
+  </si>
+  <si>
+    <r>
+      <t>addPayment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">table, PaymentType type, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>amount): void</t>
+    </r>
+  </si>
+  <si>
+    <t>table ∈ [-inf, 0)</t>
+  </si>
+  <si>
+    <t>table ∈  (8, inf]</t>
+  </si>
+  <si>
+    <t>amount ∈ [-inf, 0)</t>
+  </si>
+  <si>
+    <t>amount ∈  (1000, inf]</t>
+  </si>
+  <si>
+    <t>1, 3, 5, 7</t>
   </si>
   <si>
     <r>
@@ -529,7 +681,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 3</t>
+      <t>, 3, 5, 7</t>
     </r>
   </si>
   <si>
@@ -562,6 +714,16 @@
       </rPr>
       <t>4</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 5, 7</t>
+    </r>
   </si>
   <si>
     <r>
@@ -583,143 +745,26 @@
       </rPr>
       <t>4</t>
     </r>
-  </si>
-  <si>
-    <t>2, 4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> addPayment(table, type, amount)</t>
+      <t>, 5, 7</t>
     </r>
   </si>
   <si>
-    <t>Amount must be between 0.0 and 1000.0.</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>TC1_EC</t>
-  </si>
-  <si>
-    <t>TC2_EC</t>
-  </si>
-  <si>
-    <t>TC3_EC, TC4_EC</t>
-  </si>
-  <si>
-    <t>table is unsigned int</t>
-  </si>
-  <si>
-    <t>table is not unsigned int</t>
-  </si>
-  <si>
-    <t>table ∈ [0,8]</t>
-  </si>
-  <si>
-    <t>table ∈ [-inf, 0) + (8, inf]</t>
-  </si>
-  <si>
-    <t>amount ∈ [-inf, 0) + (1000, inf]</t>
-  </si>
-  <si>
-    <t>amount ∈ [0, 1000]</t>
-  </si>
-  <si>
-    <t>paymentType ∈ {"cash", "card"}</t>
-  </si>
-  <si>
-    <t>paymentType ∉ {"cash", "card"}</t>
-  </si>
-  <si>
-    <t>01. table = 1</t>
-  </si>
-  <si>
-    <t>02. table = 8</t>
-  </si>
-  <si>
-    <t>03. table = 9</t>
-  </si>
-  <si>
-    <t>04. table = 0</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">F01. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>addPayment(table, type, amount)</t>
-    </r>
-  </si>
-  <si>
-    <t>05. table = 2</t>
-  </si>
-  <si>
-    <t>06. table = 7</t>
-  </si>
-  <si>
-    <t>07. amount = 0.0</t>
-  </si>
-  <si>
-    <t>08. amount = 1000.0</t>
-  </si>
-  <si>
-    <t>09. amount = -0.01</t>
-  </si>
-  <si>
-    <t>10. amount = 1000.01</t>
-  </si>
-  <si>
-    <t>11. amount = 0.01</t>
-  </si>
-  <si>
-    <t>12. 999.99</t>
-  </si>
-  <si>
-    <t>table is unsigned int, 
-1 &lt;= table &lt;= 8</t>
-  </si>
-  <si>
-    <t>TC2_ECP</t>
-  </si>
-  <si>
-    <t>TC4_ECP</t>
-  </si>
-  <si>
-    <t>TC1_BVA</t>
-  </si>
-  <si>
-    <t>TC2_BVA</t>
+    <t>2, 4, 5, 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,12 +927,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -912,6 +951,24 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF56A8F5"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCF8E6D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1397,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1491,12 +1548,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1513,6 +1569,29 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1528,129 +1607,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1662,42 +1798,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1714,41 +1814,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,40 +2132,41 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="86" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="9" max="9" width="32.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="50" t="s">
+    <row r="1" spans="2:10">
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="H1" s="43" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="H1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="H2" s="53" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="H2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -2101,80 +2175,80 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J5" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10">
       <c r="B6" s="29"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="41" t="s">
+    <row r="7" spans="2:10" ht="14.55" customHeight="1"/>
+    <row r="8" spans="2:10">
+      <c r="B8" s="40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10">
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -2182,42 +2256,45 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="41" t="s">
+    <row r="18" spans="1:15">
+      <c r="B18" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:15">
+      <c r="C20" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C20" s="39" t="s">
+    <row r="22" spans="1:15">
+      <c r="B22" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2232,9 +2309,9 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2249,26 +2326,26 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="40"/>
-      <c r="B24" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C26" s="42"/>
+    <row r="24" spans="1:15" ht="14.55" customHeight="1">
+      <c r="A24" s="39"/>
+      <c r="B24" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="C26" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2286,467 +2363,505 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:Q22"/>
+  <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.81640625" customWidth="1"/>
-    <col min="16" max="16" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.77734375" customWidth="1"/>
+    <col min="16" max="16" width="29.44140625" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="2:17">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B3" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="75" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="G5" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="G5" s="76" t="s">
+      <c r="C6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="G6" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="H6" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="I6" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="84"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="M6" s="86"/>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="69" t="s">
-        <v>79</v>
+      <c r="C7" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="122" t="s">
+      <c r="G7" s="71"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L7" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="81"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="69"/>
+        <v>15</v>
+      </c>
+      <c r="C8" s="62"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="120">
+        <v>110</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="53">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="28">
+      <c r="H9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="28">
         <v>3</v>
       </c>
-      <c r="J8" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="28">
+      <c r="J9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="28">
         <v>10.5</v>
       </c>
-      <c r="L8" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="82"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="4">
+      <c r="L9" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="90"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="85"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="G9" s="14">
+      <c r="C10" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="G10" s="14">
         <v>2</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="13">
         <v>10</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="J10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="13">
         <v>50</v>
       </c>
-      <c r="L9" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="58"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="4">
+      <c r="L10" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="77"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="85"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="4">
+        <v>16</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="14">
-        <v>3</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="13">
-        <v>5</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="13">
-        <v>1250.33</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="58"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="68"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="G11" s="14">
-        <v>4</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="121">
-        <v>5</v>
-      </c>
-      <c r="J11" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="121">
-        <v>-23.01</v>
-      </c>
-      <c r="L11" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="58"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="4">
-        <v>6</v>
-      </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G12" s="14">
+        <v>3</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="13">
         <v>5</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="121">
-        <v>10</v>
-      </c>
-      <c r="J12" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="121">
+      <c r="J12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1250.33</v>
+      </c>
+      <c r="L12" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="77"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="79"/>
+    </row>
+    <row r="13" spans="2:17" ht="15" customHeight="1">
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="G13" s="14">
+        <v>4</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="54">
+        <v>5</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="54">
         <v>-23.01</v>
       </c>
-      <c r="L12" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="56"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="4">
-        <v>7</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="66"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L13" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="77"/>
+    </row>
+    <row r="14" spans="2:17">
       <c r="B14" s="4">
-        <v>8</v>
-      </c>
-      <c r="C14" s="71"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="62"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="58"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="G14" s="14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="54">
+        <v>10</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="54">
+        <v>-23.01</v>
+      </c>
+      <c r="L14" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="85"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="79"/>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="75"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="77"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="4">
-        <v>10</v>
-      </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="4">
-        <v>11</v>
-      </c>
-      <c r="C17" s="69"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="28"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="58"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="L17" s="84"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="77"/>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18" s="4">
-        <v>12</v>
-      </c>
-      <c r="C18" s="69"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="62"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="58"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="G18" s="53"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="90"/>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" s="4">
-        <v>13</v>
-      </c>
-      <c r="C19" s="69"/>
+        <v>11</v>
+      </c>
+      <c r="C19" s="62"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="77"/>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20" s="4">
-        <v>14</v>
-      </c>
-      <c r="C20" s="69"/>
+        <v>12</v>
+      </c>
+      <c r="C20" s="62"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="77"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="4">
+        <v>13</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="90"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="4">
+        <v>14</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2759,200 +2874,196 @@
   </sheetPr>
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:O11"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14:O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.90625" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.54296875" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.54296875" customWidth="1"/>
-    <col min="14" max="14" width="41.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.26953125" customWidth="1"/>
-    <col min="17" max="17" width="23.26953125" customWidth="1"/>
-    <col min="18" max="18" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="41.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.21875" customWidth="1"/>
+    <col min="17" max="17" width="23.21875" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="2:18">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="124" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="87" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.55" customHeight="1">
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="76" t="s">
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="G6" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+      <c r="H6" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="G6" s="77" t="s">
+      <c r="I6" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="J6" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="K6" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="87"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="101"/>
+    </row>
+    <row r="7" spans="2:18" ht="14.55" customHeight="1">
+      <c r="B7" s="62">
+        <v>1</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="85"/>
-    </row>
-    <row r="7" spans="2:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="69">
-        <v>1</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="60"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="69"/>
-      <c r="C8" s="125"/>
+      <c r="O7" s="81"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="62"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="120">
+        <v>91</v>
+      </c>
+      <c r="G8" s="53">
         <v>1</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
       </c>
-      <c r="I8" s="123" t="s">
-        <v>91</v>
-      </c>
+      <c r="I8" s="56"/>
       <c r="J8" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K8" s="28">
         <v>1</v>
       </c>
       <c r="L8" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M8" s="28">
         <v>0</v>
       </c>
-      <c r="N8" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="82"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="69"/>
-      <c r="C9" s="125"/>
+      <c r="N8" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="90"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="62"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="120">
+        <v>92</v>
+      </c>
+      <c r="G9" s="53">
         <v>2</v>
       </c>
       <c r="H9" s="12">
         <v>2</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K9" s="28">
         <v>8</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M9" s="28">
         <v>999.99</v>
       </c>
-      <c r="N9" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="82"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="69"/>
-      <c r="C10" s="125"/>
+      <c r="N9" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="90"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="62"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G10" s="14">
         <v>3</v>
@@ -2960,31 +3071,29 @@
       <c r="H10" s="15">
         <v>3</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="I10" s="16"/>
       <c r="J10" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10" s="13">
         <v>9</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M10" s="13">
         <v>33.299999999999997</v>
       </c>
-      <c r="N10" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" s="58"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="69"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="126" t="s">
-        <v>107</v>
+      <c r="N10" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="77"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="62"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G11" s="14">
         <v>4</v>
@@ -2992,31 +3101,29 @@
       <c r="H11" s="15">
         <v>7</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>93</v>
-      </c>
+      <c r="I11" s="16"/>
       <c r="J11" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11" s="13">
         <v>5</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M11" s="13">
         <v>-0.01</v>
       </c>
-      <c r="N11" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11" s="58"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="69"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126" t="s">
-        <v>108</v>
+      <c r="N11" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="77"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="62"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G12" s="18">
         <v>5</v>
@@ -3027,20 +3134,20 @@
       <c r="K12" s="27"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="82"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="69">
+      <c r="N12" s="89"/>
+      <c r="O12" s="90"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="62">
         <v>2</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>80</v>
+      <c r="C13" s="62" t="s">
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="120">
+        <v>97</v>
+      </c>
+      <c r="G13" s="53">
         <v>6</v>
       </c>
       <c r="H13" s="15"/>
@@ -3049,14 +3156,14 @@
       <c r="K13" s="17"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="66"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="75"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G14" s="18">
         <v>7</v>
@@ -3067,14 +3174,14 @@
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="82"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="90"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G15" s="18">
         <v>8</v>
@@ -3085,14 +3192,14 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="82"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="90"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G16" s="18">
         <v>9</v>
@@ -3103,14 +3210,14 @@
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="126" t="s">
-        <v>113</v>
+      <c r="N16" s="89"/>
+      <c r="O16" s="90"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G17" s="18">
         <v>10</v>
@@ -3121,14 +3228,14 @@
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="82"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="126" t="s">
-        <v>114</v>
+      <c r="N17" s="89"/>
+      <c r="O17" s="90"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="G18" s="18">
         <v>11</v>
@@ -3139,14 +3246,14 @@
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="82"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B19" s="88">
+      <c r="N18" s="89"/>
+      <c r="O18" s="90"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="93">
         <v>3</v>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="2"/>
       <c r="G19" s="18">
         <v>12</v>
@@ -3157,12 +3264,12 @@
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="88"/>
-      <c r="C20" s="90"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="90"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="93"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="2"/>
       <c r="G20" s="18">
         <v>13</v>
@@ -3173,12 +3280,12 @@
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="48"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="88"/>
-      <c r="C21" s="90"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="47"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="93"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="2"/>
       <c r="G21" s="18">
         <v>14</v>
@@ -3189,12 +3296,12 @@
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B22" s="88"/>
-      <c r="C22" s="90"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="47"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="93"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="2"/>
       <c r="G22" s="18">
         <v>15</v>
@@ -3205,12 +3312,12 @@
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="48"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B23" s="88"/>
-      <c r="C23" s="90"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="47"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="93"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="2"/>
       <c r="G23" s="18">
         <v>16</v>
@@ -3221,12 +3328,12 @@
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="82"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B24" s="71"/>
-      <c r="C24" s="91"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="90"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="64"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="2"/>
       <c r="G24" s="18">
         <v>17</v>
@@ -3237,18 +3344,18 @@
       <c r="K24" s="28"/>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="82"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B25" s="70">
+      <c r="N24" s="89"/>
+      <c r="O24" s="90"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="63">
         <v>4</v>
       </c>
-      <c r="C25" s="89" t="s">
-        <v>33</v>
+      <c r="C25" s="94" t="s">
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" s="18">
         <v>18</v>
@@ -3259,74 +3366,67 @@
       <c r="K25" s="28"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="82"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B26" s="88"/>
-      <c r="C26" s="90"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="90"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="93"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B27" s="88"/>
-      <c r="C27" s="90"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="93"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B28" s="88"/>
-      <c r="C28" s="90"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="93"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
+        <v>31</v>
+      </c>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
       <c r="N28" s="35"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B29" s="88"/>
-      <c r="C29" s="90"/>
+    <row r="29" spans="2:15">
+      <c r="B29" s="93"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
+        <v>31</v>
+      </c>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
       <c r="N29" s="36"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B30" s="71"/>
-      <c r="C30" s="91"/>
+    <row r="30" spans="2:15">
+      <c r="B30" s="64"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3343,15 +3443,22 @@
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3365,369 +3472,369 @@
   </sheetPr>
   <dimension ref="B1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="75.1796875" customWidth="1"/>
-    <col min="10" max="10" width="24.26953125" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" customWidth="1"/>
-    <col min="13" max="13" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="75.21875" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="119" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="77" t="s">
+      <c r="D4" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="E4" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="F4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="105"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1">
+      <c r="B5" s="113"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="63"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="104"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:14" ht="15" thickTop="1">
       <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="102" t="s">
-        <v>52</v>
+      <c r="C6" s="111" t="s">
+        <v>50</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="28">
         <v>3</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H6" s="28">
         <v>10.5</v>
       </c>
-      <c r="I6" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I6" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="19">
         <v>2</v>
       </c>
-      <c r="C7" s="102"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="25" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="13">
         <v>10</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H7" s="13">
         <v>50</v>
       </c>
-      <c r="I7" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I7" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="19">
         <v>3</v>
       </c>
-      <c r="C8" s="102"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="13">
         <v>5</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H8" s="13">
         <v>1250.33</v>
       </c>
-      <c r="I8" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I8" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="102"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="25" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="121">
+        <v>32</v>
+      </c>
+      <c r="F9" s="54">
         <v>5</v>
       </c>
-      <c r="G9" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="121">
+      <c r="G9" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="54">
         <v>-23.01</v>
       </c>
-      <c r="I9" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I9" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="102"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="121">
+        <v>32</v>
+      </c>
+      <c r="F10" s="54">
         <v>10</v>
       </c>
-      <c r="G10" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="121">
+      <c r="G10" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="54">
         <v>-23.01</v>
       </c>
-      <c r="I10" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="8">
         <f t="shared" ref="B11:B15" si="0">B10+1</f>
         <v>6</v>
       </c>
-      <c r="C11" s="102"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F11" s="28">
         <v>1</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11" s="28">
         <v>0</v>
       </c>
-      <c r="I11" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I11" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="102"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F12" s="28">
         <v>8</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H12" s="28">
         <v>999.99</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I12" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="102"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="13">
         <v>9</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13" s="13">
         <v>33.299999999999997</v>
       </c>
-      <c r="I13" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="102"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="13">
         <v>5</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" s="13">
         <v>-0.01</v>
       </c>
-      <c r="I14" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickBot="1">
       <c r="B15" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="103"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>35</v>
-      </c>
       <c r="I15" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickTop="1">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
@@ -3742,9 +3849,9 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
     </row>
-    <row r="17" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" ht="14.55" customHeight="1">
       <c r="B17" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="23"/>
@@ -3754,102 +3861,102 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" ht="15" thickBot="1">
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="127" t="s">
+    <row r="19" spans="2:16" ht="15" thickTop="1">
+      <c r="C19" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="31" t="s">
+      <c r="I19" s="123"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="95" t="s">
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="104"/>
+    </row>
+    <row r="20" spans="2:16" ht="14.55" customHeight="1">
+      <c r="B20" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="96"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="127" t="s">
+      <c r="D20" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="129"/>
-    </row>
-    <row r="20" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="109" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="110" t="s">
+      <c r="E20" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="F20" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="94" t="s">
+      <c r="G20" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="93" t="s">
+      <c r="H20" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="112"/>
-      <c r="J20" s="94" t="s">
+      <c r="I20" s="127"/>
+      <c r="J20" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="99" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20" s="94" t="s">
+      <c r="M20" s="131" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="P20" s="93" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="93"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="121"/>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="30">
         <v>9</v>
@@ -3862,10 +3969,10 @@
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="38"/>
-      <c r="H22" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="108"/>
+      <c r="H22" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="117"/>
       <c r="J22" s="2">
         <v>0</v>
       </c>
@@ -3876,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -3888,11 +3995,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16">
       <c r="M23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="M19:P19"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="I4:J4"/>
@@ -3903,23 +4027,6 @@
     <mergeCell ref="C6:C15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3928,21 +4035,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -4086,24 +4178,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4119,4 +4209,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>